--- a/Documentation/Timer_Test_Cases.xlsx
+++ b/Documentation/Timer_Test_Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djste\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djste\Documents\GitHub\Time_Travelers_Verilog_Stopwatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9C3A3-C6DE-4253-8CE0-789B6F9E160C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831F522-5E00-4F90-BC76-A553602335E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="345" windowWidth="15795" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -255,12 +255,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,19 +265,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +595,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,10 +656,10 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -671,16 +668,16 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -691,7 +688,7 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
@@ -700,7 +697,7 @@
       <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -711,7 +708,7 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
@@ -720,7 +717,7 @@
       <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -731,32 +728,34 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -767,13 +766,16 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -784,16 +786,16 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -804,12 +806,12 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -820,21 +822,24 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
   </mergeCells>
@@ -843,6 +848,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008B8F660E2FD5A4F9C25F557691C2E7B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="291a90324d5b7e405cdee1cca19d0e54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fe6e073-fbcf-4c9f-9467-c4294a786ad2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a3d94df2e09d7482e07420c2cba8fd2" ns2:_="">
     <xsd:import namespace="0fe6e073-fbcf-4c9f-9467-c4294a786ad2"/>
@@ -988,22 +1008,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099A5288-121E-4A14-A6B4-83046D76B9FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1019,21 +1041,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>